--- a/templates/user_import_template.xlsx
+++ b/templates/user_import_template.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\06selfwork\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA1FCD4-75E9-4149-A15D-B603F7948F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="3132" windowWidth="21120" windowHeight="10092" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="4335" windowWidth="21120" windowHeight="10095"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>姓名</t>
   </si>
@@ -39,16 +38,6 @@
     <t>出生日期</t>
   </si>
   <si>
-    <t>测试1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试2</t>
-  </si>
-  <si>
-    <t>测试3</t>
-  </si>
-  <si>
     <t>测试4</t>
   </si>
   <si>
@@ -97,77 +86,17 @@
     <t>测试19</t>
   </si>
   <si>
-    <t>U10010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U10011</t>
-  </si>
-  <si>
-    <t>U10013</t>
-  </si>
-  <si>
-    <t>U10014</t>
-  </si>
-  <si>
-    <t>U10015</t>
-  </si>
-  <si>
-    <t>U10016</t>
-  </si>
-  <si>
-    <t>U10017</t>
-  </si>
-  <si>
-    <t>U10018</t>
-  </si>
-  <si>
-    <t>U10019</t>
-  </si>
-  <si>
-    <t>U10020</t>
-  </si>
-  <si>
-    <t>U10021</t>
-  </si>
-  <si>
-    <t>U10022</t>
-  </si>
-  <si>
-    <t>U10023</t>
-  </si>
-  <si>
-    <t>U10024</t>
-  </si>
-  <si>
-    <t>U10025</t>
-  </si>
-  <si>
-    <t>U10026</t>
-  </si>
-  <si>
-    <t>U10028</t>
-  </si>
-  <si>
     <t>普通用户</t>
   </si>
   <si>
     <t>中层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U10027</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U10012</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
@@ -505,19 +434,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B2" sqref="B2:B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -531,274 +460,233 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>23</v>
+      <c r="B2">
+        <v>1001013</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2">
-        <v>32998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+        <v>33001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>24</v>
+      <c r="B3">
+        <v>1001014</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2">
-        <v>32999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+        <v>33002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>43</v>
+      <c r="B4">
+        <v>1001015</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2">
-        <v>33000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+        <v>33003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
-        <v>25</v>
+      <c r="B5">
+        <v>1001016</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2">
-        <v>33001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+        <v>33004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
-        <v>26</v>
+      <c r="B6">
+        <v>1001017</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2">
-        <v>33002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+        <v>33005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
-        <v>27</v>
+      <c r="B7">
+        <v>1001018</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2">
-        <v>33003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+        <v>33006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
-        <v>28</v>
+      <c r="B8">
+        <v>1001019</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2">
-        <v>33004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+        <v>33007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
-        <v>29</v>
+      <c r="B9">
+        <v>1001020</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D9" s="2">
-        <v>33005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+        <v>33008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" t="s">
-        <v>30</v>
+      <c r="B10">
+        <v>1001021</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D10" s="2">
-        <v>33006</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+        <v>33009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
-        <v>31</v>
+      <c r="B11">
+        <v>1001022</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2">
-        <v>33007</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+        <v>33010</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" t="s">
-        <v>32</v>
+      <c r="B12">
+        <v>1001023</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D12" s="2">
-        <v>33008</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+        <v>33011</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" t="s">
-        <v>33</v>
+      <c r="B13">
+        <v>1001024</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D13" s="2">
-        <v>33009</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+        <v>33012</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" t="s">
-        <v>34</v>
+      <c r="B14">
+        <v>1001025</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D14" s="2">
-        <v>33010</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+        <v>33013</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" t="s">
-        <v>35</v>
+      <c r="B15">
+        <v>1001026</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D15" s="2">
-        <v>33011</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+        <v>33014</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16" t="s">
-        <v>36</v>
+      <c r="B16">
+        <v>1001027</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="D16" s="2">
-        <v>33012</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+        <v>33015</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B17" t="s">
-        <v>37</v>
+      <c r="B17">
+        <v>1001028</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="D17" s="2">
-        <v>33013</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="2">
-        <v>33014</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="2">
-        <v>33015</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="2">
         <v>33016</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>